--- a/3-Task assignment and Timeline.xlsx
+++ b/3-Task assignment and Timeline.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\H\FALL23\PRACTICE\PROJECT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raug0\Desktop\College\Fall 2023\WEB CLIENT DEVELOPMENT\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3445D7-7526-4256-B13C-01C7513F7258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agenda" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Team member</t>
   </si>
@@ -118,11 +119,26 @@
     <t>2023-11-30
 Week 14</t>
   </si>
+  <si>
+    <t>Rony</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge  </t>
+  </si>
+  <si>
+    <t>Felipe</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>Diego</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -339,6 +355,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -353,12 +375,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,42 +689,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B21" sqref="B21:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" customWidth="1"/>
-    <col min="2" max="2" width="26.26953125" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="19"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="B1" s="21"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="16"/>
-    </row>
-    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20" t="s">
+      <c r="B2" s="18"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="20"/>
-    </row>
-    <row r="4" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-    </row>
-    <row r="5" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="22"/>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -719,37 +735,37 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="14"/>
     </row>
-    <row r="7" spans="1:3" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:3" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:3" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="14"/>
     </row>
-    <row r="10" spans="1:3" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>22</v>
       </c>
@@ -758,7 +774,7 @@
       </c>
       <c r="C10" s="14"/>
     </row>
-    <row r="11" spans="1:3" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>23</v>
       </c>
@@ -767,7 +783,7 @@
       </c>
       <c r="C11" s="14"/>
     </row>
-    <row r="12" spans="1:3" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>24</v>
       </c>
@@ -789,44 +805,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="16.08984375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="60.90625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="72.453125" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="5"/>
+    <col min="1" max="2" width="16.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="60.85546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="72.42578125" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="19"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="B1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="16"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20" t="s">
+      <c r="B2" s="18"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="20"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="22"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+    </row>
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -840,45 +856,55 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="62" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" ht="62" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" ht="77.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>5</v>
       </c>
@@ -898,6 +924,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="01f01373-8289-4c71-827e-575e713210cf" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1db83839-1b20-48da-8732-8ae30061fd32">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005019732B19E98C4FBEAC638F9E680521" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c1ba2fdfd58c6158e54a74d5d6a59737">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="01f01373-8289-4c71-827e-575e713210cf" xmlns:ns3="1db83839-1b20-48da-8732-8ae30061fd32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e119848c65fd66d47c347e794e4ea2a5" ns2:_="" ns3:_="">
     <xsd:import namespace="01f01373-8289-4c71-827e-575e713210cf"/>
@@ -1120,34 +1166,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="01f01373-8289-4c71-827e-575e713210cf" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1db83839-1b20-48da-8732-8ae30061fd32">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83869332-A43B-4DF6-A0BB-B019200F8EBF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2708718-A9B2-4950-A8D7-D0AD76B0F0C1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="01f01373-8289-4c71-827e-575e713210cf"/>
+    <ds:schemaRef ds:uri="1db83839-1b20-48da-8732-8ae30061fd32"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE5B96F2-361E-437A-B4FB-1A03397D27EF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE5B96F2-361E-437A-B4FB-1A03397D27EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2708718-A9B2-4950-A8D7-D0AD76B0F0C1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83869332-A43B-4DF6-A0BB-B019200F8EBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="01f01373-8289-4c71-827e-575e713210cf"/>
+    <ds:schemaRef ds:uri="1db83839-1b20-48da-8732-8ae30061fd32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>